--- a/data.xlsx
+++ b/data.xlsx
@@ -999,19 +999,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1047,16 +1041,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1065,7 +1056,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,17 +1368,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="54.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="54.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1439,7 +1430,7 @@
         <v>1144</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -2985,7 +2976,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3005,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -3043,7 +3034,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -3072,7 +3063,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -3101,7 +3092,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3130,7 +3121,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -3159,7 +3150,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -3188,7 +3179,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -3217,7 +3208,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -3246,7 +3237,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3275,7 +3266,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3295,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3324,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -3362,7 +3353,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -3391,7 +3382,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3420,7 +3411,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3449,7 +3440,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3469,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -3507,7 +3498,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3536,7 +3527,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -3565,7 +3556,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3594,7 +3585,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3623,7 +3614,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3652,7 +3643,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +3672,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3710,7 +3701,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3739,7 +3730,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3768,7 +3759,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3797,7 +3788,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +3817,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3855,7 +3846,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -3884,7 +3875,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3913,7 +3904,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3942,7 +3933,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3971,7 +3962,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -4000,7 +3991,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -4029,7 +4020,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -4058,7 +4049,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -4087,7 +4078,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -5687,9 +5678,9 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -5700,9 +5691,9 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="322">
   <si>
     <t>category</t>
   </si>
@@ -25,6 +25,9 @@
     <t>subject</t>
   </si>
   <si>
+    <t>imgID</t>
+  </si>
+  <si>
     <t>imgTitle</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>Spirit 6-2022.jpg</t>
   </si>
   <si>
-    <t>6pm, maybe walk more-2012</t>
+    <t>6pm, maybe walk more</t>
   </si>
   <si>
     <t>6pm, maybe walk more-2012.jpg</t>
@@ -984,7 +987,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +998,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1026,13 +1035,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1345,7 +1360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1353,14 +1368,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="54.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="54.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1373,3842 +1389,4286 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
         <v>300</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="5">
         <v>300</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="5">
         <v>2018</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
         <v>732</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="5">
         <v>1144</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="5">
         <v>2009</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
         <v>2290</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="5">
         <v>1480</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="5">
         <v>2012</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
         <v>920</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="5">
         <v>1110</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="5">
         <v>2012</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
         <v>960</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="5">
         <v>890</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="5">
         <v>2015</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5">
         <v>920</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="5">
         <v>910</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="5">
         <v>2015</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5">
         <v>749</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="5">
         <v>1650</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="5">
         <v>2015</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5">
         <v>610</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="5">
         <v>1520</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="5">
         <v>2013</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
         <v>1150</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="5">
         <v>750</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="5">
         <v>2015</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5">
         <v>530</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="5">
         <v>722</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="5">
         <v>2022</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
         <v>530</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="5">
         <v>722</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="5">
         <v>2022</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5">
         <v>530</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="5">
         <v>722</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="5">
         <v>2022</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
         <v>530</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="5">
         <v>722</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="5">
         <v>2022</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5">
         <v>530</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="5">
         <v>722</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="5">
         <v>2022</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5">
         <v>530</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="5">
         <v>722</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="5">
         <v>2022</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5">
         <v>530</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="5">
         <v>722</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="5">
         <v>2022</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>46</v>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5">
         <v>530</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="5">
         <v>722</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="5">
         <v>2022</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5">
         <v>1500</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="5">
         <v>947</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="5">
         <v>2015</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
+      <c r="I19" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5">
         <v>590</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="5">
         <v>590</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="5">
         <v>2022</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>52</v>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="5">
         <v>590</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="5">
         <v>590</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="5">
         <v>2022</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="5">
         <v>590</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="5">
         <v>590</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="5">
         <v>2022</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>56</v>
+      <c r="I22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5">
         <v>590</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="5">
         <v>590</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="5">
         <v>2022</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>58</v>
+      <c r="I23" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5">
         <v>590</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="5">
         <v>590</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="5">
         <v>2022</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>60</v>
+      <c r="I24" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5">
         <v>590</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="5">
         <v>590</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="5">
         <v>2022</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>62</v>
+      <c r="I25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="3">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5">
         <v>810</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="5">
         <v>1160</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="5">
         <v>2012</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="3">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="5">
         <v>810</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="5">
         <v>1160</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="5">
         <v>2012</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>66</v>
+      <c r="I27" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="3">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5">
         <v>727</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="5">
         <v>909</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="5">
         <v>2022</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
+      <c r="I28" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="3">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5">
         <v>530</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="5">
         <v>727</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="5">
         <v>2018</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>70</v>
+      <c r="I29" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="3">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="5">
         <v>1020</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="5">
         <v>760</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="5">
         <v>2012</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>72</v>
+      <c r="I30" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="5">
         <v>970</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="5">
         <v>920</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="5">
         <v>2009</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>74</v>
+      <c r="I31" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5">
         <v>304</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="5">
         <v>304</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="5">
         <v>2022</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>76</v>
+      <c r="I32" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="5">
         <v>304</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="5">
         <v>304</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="5">
         <v>2022</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>78</v>
+      <c r="I33" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="3">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="5">
         <v>560</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="5">
         <v>713</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="5">
         <v>2022</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>80</v>
+      <c r="I34" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="5">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="5">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="5">
         <v>2022</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>82</v>
+      <c r="I35" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="3">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="5">
         <v>456</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="5">
         <v>610</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="5">
         <v>2018</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>84</v>
+      <c r="I36" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="3">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="5">
         <v>300</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="5">
         <v>300</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="5">
         <v>2022</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>86</v>
+      <c r="I37" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="5">
         <v>456</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="5">
         <v>610</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="5">
         <v>2021</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>88</v>
+      <c r="I38" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="3">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="5">
         <v>460</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="5">
         <v>607</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="5">
         <v>2021</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>90</v>
+      <c r="I39" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="3">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="5">
         <v>300</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="5">
         <v>300</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="5">
         <v>2022</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>92</v>
+      <c r="I40" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="3">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="5">
         <v>455</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="5">
         <v>530</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="5">
         <v>2022</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>94</v>
+      <c r="I41" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="3">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="5">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="5">
         <v>552</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="5">
         <v>2022</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>96</v>
+      <c r="I42" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="3">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="5">
         <v>560</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="5">
         <v>713</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="5">
         <v>2022</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>98</v>
+      <c r="I43" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="3">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="5">
         <v>530</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="5">
         <v>727</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="5">
         <v>2019</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>100</v>
+      <c r="I44" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="3">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="5">
         <v>530</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="5">
         <v>727</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="5">
         <v>2019</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>102</v>
+      <c r="I45" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="3">
+        <v>11</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="5">
         <v>1020</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="5">
         <v>760</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="5">
         <v>2012</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>104</v>
+      <c r="I46" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="3">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="5">
         <v>910</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="5">
         <v>1168</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="5">
         <v>2022</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>106</v>
+      <c r="I47" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="3">
+        <v>11</v>
+      </c>
+      <c r="D48" s="4">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="5">
         <v>1015</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="5">
         <v>1010</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="5">
         <v>2022</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>108</v>
+      <c r="I48" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="3">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="5">
         <v>455</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="5">
         <v>53</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="5">
         <v>2022</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>110</v>
+      <c r="I49" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="5">
         <v>530</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="5">
         <v>727</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="5">
         <v>2022</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>112</v>
+      <c r="I50" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="3">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="5">
         <v>606</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="5">
         <v>727</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="5">
         <v>2022</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>114</v>
+      <c r="I51" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="3">
+        <v>11</v>
+      </c>
+      <c r="D52" s="4">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="5">
         <v>970</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="5">
         <v>920</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="5">
         <v>2012</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>116</v>
+      <c r="I52" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="3">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="5">
         <v>810</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="5">
         <v>1160</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="5">
         <v>2012</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>118</v>
+      <c r="I53" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="D54" s="4">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
         <v>2018</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>122</v>
+      <c r="I54" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
+        <v>121</v>
+      </c>
+      <c r="D55" s="4">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
         <v>2018</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>124</v>
+      <c r="I55" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
+        <v>121</v>
+      </c>
+      <c r="D56" s="4">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
         <v>2018</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>126</v>
+      <c r="I56" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+        <v>121</v>
+      </c>
+      <c r="D57" s="4">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
         <v>2018</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>128</v>
+      <c r="I57" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+        <v>121</v>
+      </c>
+      <c r="D58" s="4">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
         <v>2018</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>130</v>
+      <c r="I58" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+        <v>121</v>
+      </c>
+      <c r="D59" s="4">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
         <v>2018</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>132</v>
+      <c r="I59" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
+        <v>121</v>
+      </c>
+      <c r="D60" s="4">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
         <v>2018</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>134</v>
+      <c r="I60" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+        <v>121</v>
+      </c>
+      <c r="D61" s="4">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
         <v>2018</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>136</v>
+      <c r="I61" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+        <v>121</v>
+      </c>
+      <c r="D62" s="4">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
         <v>2018</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>138</v>
+      <c r="I62" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
+        <v>121</v>
+      </c>
+      <c r="D63" s="4">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
         <v>2018</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>140</v>
+      <c r="I63" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
+        <v>121</v>
+      </c>
+      <c r="D64" s="4">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
         <v>2018</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>142</v>
+      <c r="I64" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
+        <v>121</v>
+      </c>
+      <c r="D65" s="4">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
         <v>2018</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>144</v>
+      <c r="I65" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+        <v>121</v>
+      </c>
+      <c r="D66" s="4">
+        <v>65</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
         <v>2018</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>146</v>
+      <c r="I66" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
+        <v>121</v>
+      </c>
+      <c r="D67" s="4">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
         <v>2018</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>148</v>
+      <c r="I67" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
+        <v>121</v>
+      </c>
+      <c r="D68" s="4">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
         <v>2018</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>150</v>
+      <c r="I68" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
+        <v>121</v>
+      </c>
+      <c r="D69" s="4">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
         <v>2018</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>152</v>
+      <c r="I69" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
+        <v>121</v>
+      </c>
+      <c r="D70" s="4">
+        <v>69</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
         <v>2018</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>154</v>
+      <c r="I70" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
+        <v>121</v>
+      </c>
+      <c r="D71" s="4">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
         <v>2018</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>156</v>
+      <c r="I71" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="D72" s="4">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
         <v>2018</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>159</v>
+      <c r="I72" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
+        <v>158</v>
+      </c>
+      <c r="D73" s="4">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
         <v>2018</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>161</v>
+      <c r="I73" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
+        <v>158</v>
+      </c>
+      <c r="D74" s="4">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
         <v>2018</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>163</v>
+      <c r="I74" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
+        <v>158</v>
+      </c>
+      <c r="D75" s="4">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
         <v>2018</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>165</v>
+      <c r="I75" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+        <v>158</v>
+      </c>
+      <c r="D76" s="4">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
         <v>2018</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>167</v>
+      <c r="I76" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
+        <v>158</v>
+      </c>
+      <c r="D77" s="4">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
         <v>2018</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>169</v>
+      <c r="I77" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
+        <v>158</v>
+      </c>
+      <c r="D78" s="4">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
         <v>2018</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>171</v>
+      <c r="I78" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
+        <v>158</v>
+      </c>
+      <c r="D79" s="4">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
         <v>2018</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>173</v>
+      <c r="I79" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
+        <v>158</v>
+      </c>
+      <c r="D80" s="4">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
         <v>2018</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>175</v>
+      <c r="I80" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+        <v>158</v>
+      </c>
+      <c r="D81" s="4">
+        <v>80</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
         <v>2018</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>177</v>
+      <c r="I81" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
+        <v>158</v>
+      </c>
+      <c r="D82" s="4">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
         <v>2018</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>179</v>
+      <c r="I82" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
+        <v>158</v>
+      </c>
+      <c r="D83" s="4">
+        <v>82</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
         <v>2018</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>181</v>
+      <c r="I83" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
+        <v>158</v>
+      </c>
+      <c r="D84" s="4">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
         <v>2018</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>183</v>
+      <c r="I84" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
+        <v>158</v>
+      </c>
+      <c r="D85" s="4">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
         <v>2018</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>185</v>
+      <c r="I85" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
+        <v>158</v>
+      </c>
+      <c r="D86" s="4">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
         <v>2018</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>187</v>
+      <c r="I86" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
+        <v>158</v>
+      </c>
+      <c r="D87" s="4">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
         <v>2018</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>189</v>
+      <c r="I87" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
+        <v>158</v>
+      </c>
+      <c r="D88" s="4">
+        <v>87</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
         <v>2018</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>191</v>
+      <c r="I88" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+        <v>158</v>
+      </c>
+      <c r="D89" s="4">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
         <v>2018</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>193</v>
+      <c r="I89" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
+        <v>158</v>
+      </c>
+      <c r="D90" s="4">
+        <v>89</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
         <v>2018</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>195</v>
+      <c r="I90" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+        <v>158</v>
+      </c>
+      <c r="D91" s="4">
+        <v>90</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
         <v>2018</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>197</v>
+      <c r="I91" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
+        <v>158</v>
+      </c>
+      <c r="D92" s="4">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
         <v>2018</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>199</v>
+      <c r="I92" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
+        <v>158</v>
+      </c>
+      <c r="D93" s="4">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
         <v>2018</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>201</v>
+      <c r="I93" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+        <v>158</v>
+      </c>
+      <c r="D94" s="4">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5">
         <v>2018</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>203</v>
+      <c r="I94" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
+        <v>158</v>
+      </c>
+      <c r="D95" s="4">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
+      <c r="H95" s="5">
         <v>2018</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>205</v>
+      <c r="I95" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+        <v>158</v>
+      </c>
+      <c r="D96" s="4">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+      <c r="H96" s="5">
         <v>2018</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>207</v>
+      <c r="I96" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
+        <v>158</v>
+      </c>
+      <c r="D97" s="4">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5">
         <v>2018</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>209</v>
+      <c r="I97" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="3">
+      <c r="D98" s="4">
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="5">
         <v>995</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G98" s="5">
         <v>995</v>
       </c>
-      <c r="G98" s="3">
+      <c r="H98" s="5">
         <v>2012</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>213</v>
+      <c r="I98" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="3">
+        <v>212</v>
+      </c>
+      <c r="D99" s="4">
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" s="5">
         <v>995</v>
       </c>
-      <c r="F99" s="3">
+      <c r="G99" s="5">
         <v>995</v>
       </c>
-      <c r="G99" s="3">
+      <c r="H99" s="5">
         <v>2012</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>215</v>
+      <c r="I99" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E100" s="3">
+      <c r="D100" s="4">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" s="5">
         <v>890</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="5">
         <v>890</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="5">
         <v>2014</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>218</v>
+      <c r="I100" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E101" s="3">
+      <c r="D101" s="4">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="5">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="5">
         <v>1450</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="5">
         <v>2017</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>221</v>
+      <c r="I101" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+        <v>211</v>
+      </c>
+      <c r="D102" s="4">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0</v>
+      </c>
+      <c r="H102" s="5">
         <v>2017</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>223</v>
+      <c r="I102" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
+        <v>211</v>
+      </c>
+      <c r="D103" s="4">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5">
         <v>2017</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>225</v>
+      <c r="I103" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="3">
+        <v>211</v>
+      </c>
+      <c r="D104" s="4">
+        <v>103</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5">
         <v>2017</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>227</v>
+      <c r="I104" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0</v>
-      </c>
-      <c r="G105" s="3">
+        <v>211</v>
+      </c>
+      <c r="D105" s="4">
+        <v>104</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
+      <c r="H105" s="5">
         <v>2017</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>229</v>
+      <c r="I105" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="3">
+        <v>211</v>
+      </c>
+      <c r="D106" s="4">
+        <v>105</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5">
         <v>2017</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>231</v>
+      <c r="I106" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="3">
+        <v>211</v>
+      </c>
+      <c r="D107" s="4">
+        <v>106</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
         <v>2017</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>233</v>
+      <c r="I107" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="3">
+        <v>211</v>
+      </c>
+      <c r="D108" s="4">
+        <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
         <v>2017</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>235</v>
+      <c r="I108" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="3">
+        <v>211</v>
+      </c>
+      <c r="D109" s="4">
+        <v>108</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="5">
         <v>2017</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>237</v>
+      <c r="I109" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="3">
+        <v>211</v>
+      </c>
+      <c r="D110" s="4">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0</v>
+      </c>
+      <c r="H110" s="5">
         <v>2017</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>239</v>
+      <c r="I110" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
+        <v>211</v>
+      </c>
+      <c r="D111" s="4">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5">
         <v>2017</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>241</v>
+      <c r="I111" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="3">
+        <v>211</v>
+      </c>
+      <c r="D112" s="4">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
+      <c r="H112" s="5">
         <v>2017</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>243</v>
+      <c r="I112" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
+        <v>211</v>
+      </c>
+      <c r="D113" s="4">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+      <c r="H113" s="5">
         <v>2017</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>245</v>
+      <c r="I113" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
+        <v>211</v>
+      </c>
+      <c r="D114" s="4">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0</v>
+      </c>
+      <c r="H114" s="5">
         <v>2017</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>247</v>
+      <c r="I114" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="3">
+        <v>211</v>
+      </c>
+      <c r="D115" s="4">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0</v>
+      </c>
+      <c r="H115" s="5">
         <v>2017</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>249</v>
+      <c r="I115" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="3">
+        <v>211</v>
+      </c>
+      <c r="D116" s="4">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0</v>
+      </c>
+      <c r="H116" s="5">
         <v>2017</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>251</v>
+      <c r="I116" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3">
+        <v>211</v>
+      </c>
+      <c r="D117" s="4">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+      <c r="H117" s="5">
         <v>2016</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>253</v>
+      <c r="I117" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
+        <v>211</v>
+      </c>
+      <c r="D118" s="4">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0</v>
+      </c>
+      <c r="H118" s="5">
         <v>2017</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>255</v>
+      <c r="I118" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E119" s="3">
+        <v>211</v>
+      </c>
+      <c r="D119" s="4">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F119" s="5">
         <v>400</v>
       </c>
-      <c r="F119" s="3">
+      <c r="G119" s="5">
         <v>130</v>
       </c>
-      <c r="G119" s="3">
+      <c r="H119" s="5">
         <v>2016</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>257</v>
+      <c r="I119" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="3">
+        <v>211</v>
+      </c>
+      <c r="D120" s="4">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+      <c r="H120" s="5">
         <v>2016</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>259</v>
+      <c r="I120" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E121" s="3">
+        <v>211</v>
+      </c>
+      <c r="D121" s="4">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="5">
         <v>750</v>
       </c>
-      <c r="F121" s="3">
+      <c r="G121" s="5">
         <v>160</v>
       </c>
-      <c r="G121" s="3">
+      <c r="H121" s="5">
         <v>2016</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>261</v>
+      <c r="I121" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" s="3">
+        <v>211</v>
+      </c>
+      <c r="D122" s="4">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" s="5">
         <v>750</v>
       </c>
-      <c r="F122" s="3">
+      <c r="G122" s="5">
         <v>160</v>
       </c>
-      <c r="G122" s="3">
+      <c r="H122" s="5">
         <v>2016</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>263</v>
+      <c r="I122" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E123" s="3">
+        <v>211</v>
+      </c>
+      <c r="D123" s="4">
+        <v>122</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F123" s="5">
         <v>750</v>
       </c>
-      <c r="F123" s="3">
+      <c r="G123" s="5">
         <v>160</v>
       </c>
-      <c r="G123" s="3">
+      <c r="H123" s="5">
         <v>2016</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>265</v>
+      <c r="I123" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D124" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3">
-        <v>0</v>
-      </c>
-      <c r="G124" s="3">
+      <c r="D124" s="4">
+        <v>123</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5">
         <v>2015</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>269</v>
+      <c r="I124" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="3">
+        <v>268</v>
+      </c>
+      <c r="D125" s="4">
+        <v>124</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0</v>
+      </c>
+      <c r="H125" s="5">
         <v>2015</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>271</v>
+      <c r="I125" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="3">
+        <v>268</v>
+      </c>
+      <c r="D126" s="4">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
         <v>2015</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>273</v>
+      <c r="I126" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-      <c r="G127" s="3">
+        <v>268</v>
+      </c>
+      <c r="D127" s="4">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="5">
         <v>2015</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>275</v>
+      <c r="I127" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3">
+        <v>268</v>
+      </c>
+      <c r="D128" s="4">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
+      </c>
+      <c r="H128" s="5">
         <v>2015</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>277</v>
+      <c r="I128" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D129" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
-        <v>0</v>
-      </c>
-      <c r="G129" s="3">
+      <c r="D129" s="4">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5">
         <v>2017</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>280</v>
+      <c r="I129" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3">
+        <v>279</v>
+      </c>
+      <c r="D130" s="4">
+        <v>129</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0</v>
+      </c>
+      <c r="H130" s="5">
         <v>2017</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>282</v>
+      <c r="I130" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="3">
+      <c r="D131" s="4">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5">
         <v>2022</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>285</v>
+      <c r="I131" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3">
+        <v>284</v>
+      </c>
+      <c r="D132" s="4">
+        <v>131</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5">
         <v>2022</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>287</v>
+      <c r="I132" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="3">
+        <v>284</v>
+      </c>
+      <c r="D133" s="4">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0</v>
+      </c>
+      <c r="H133" s="5">
         <v>2022</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>289</v>
+      <c r="I133" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="3">
+        <v>284</v>
+      </c>
+      <c r="D134" s="4">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0</v>
+      </c>
+      <c r="H134" s="5">
         <v>2022</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>291</v>
+      <c r="I134" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
-        <v>0</v>
-      </c>
-      <c r="G135" s="3">
+        <v>284</v>
+      </c>
+      <c r="D135" s="4">
+        <v>134</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0</v>
+      </c>
+      <c r="H135" s="5">
         <v>2022</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>293</v>
+      <c r="I135" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3">
-        <v>0</v>
-      </c>
-      <c r="G136" s="3">
+        <v>284</v>
+      </c>
+      <c r="D136" s="4">
+        <v>135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0</v>
+      </c>
+      <c r="H136" s="5">
         <v>2022</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>295</v>
+      <c r="I136" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0</v>
-      </c>
-      <c r="G137" s="3">
+        <v>284</v>
+      </c>
+      <c r="D137" s="4">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0</v>
+      </c>
+      <c r="H137" s="5">
         <v>2022</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>297</v>
+      <c r="I137" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3">
-        <v>0</v>
-      </c>
-      <c r="G138" s="3">
+        <v>284</v>
+      </c>
+      <c r="D138" s="4">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0</v>
+      </c>
+      <c r="H138" s="5">
         <v>2022</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>299</v>
+      <c r="I138" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D139" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3">
+      <c r="D139" s="4">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0</v>
+      </c>
+      <c r="H139" s="5">
         <v>2022</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>302</v>
+      <c r="I139" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-      <c r="G140" s="3">
+        <v>301</v>
+      </c>
+      <c r="D140" s="4">
+        <v>139</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0</v>
+      </c>
+      <c r="H140" s="5">
         <v>2022</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>304</v>
+      <c r="I140" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-      <c r="G141" s="3">
+        <v>301</v>
+      </c>
+      <c r="D141" s="4">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5">
+        <v>0</v>
+      </c>
+      <c r="H141" s="5">
         <v>2022</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>306</v>
+      <c r="I141" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="3">
+        <v>301</v>
+      </c>
+      <c r="D142" s="4">
+        <v>141</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0</v>
+      </c>
+      <c r="H142" s="5">
         <v>2022</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>308</v>
+      <c r="I142" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0</v>
-      </c>
-      <c r="G143" s="3">
+        <v>301</v>
+      </c>
+      <c r="D143" s="4">
+        <v>142</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0</v>
+      </c>
+      <c r="H143" s="5">
         <v>2022</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>310</v>
+      <c r="I143" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3">
+        <v>301</v>
+      </c>
+      <c r="D144" s="4">
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0</v>
+      </c>
+      <c r="H144" s="5">
         <v>2022</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>312</v>
+      <c r="I144" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="3">
+        <v>301</v>
+      </c>
+      <c r="D145" s="4">
+        <v>144</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0</v>
+      </c>
+      <c r="H145" s="5">
         <v>2022</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>314</v>
+      <c r="I145" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3">
+        <v>301</v>
+      </c>
+      <c r="D146" s="4">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0</v>
+      </c>
+      <c r="H146" s="5">
         <v>2022</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>316</v>
+      <c r="I146" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="3">
+        <v>301</v>
+      </c>
+      <c r="D147" s="4">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5">
         <v>2022</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>318</v>
+      <c r="I147" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
-        <v>0</v>
-      </c>
-      <c r="G148" s="3">
+        <v>301</v>
+      </c>
+      <c r="D148" s="4">
+        <v>147</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0</v>
+      </c>
+      <c r="H148" s="5">
         <v>2022</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>320</v>
+      <c r="I148" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1690ED-EF7B-0B4B-B64C-5B88C1ED4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B0600-805E-214B-BC8E-E750CAB595A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="3320" windowWidth="28020" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19500" yWindow="2160" windowWidth="24160" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,6 +992,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1002,13 +1005,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1047,18 +1050,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1369,8 +1375,8 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1378,11 +1384,11 @@
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1431,13 +1437,13 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>300</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>300</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2018</v>
       </c>
       <c r="I2" t="s">
@@ -1460,13 +1466,13 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>732</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1144</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2009</v>
       </c>
       <c r="I3" t="s">
@@ -1489,13 +1495,13 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2290</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1480</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2012</v>
       </c>
       <c r="I4" t="s">
@@ -1518,13 +1524,13 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>920</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1110</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2012</v>
       </c>
       <c r="I5" t="s">
@@ -1547,13 +1553,13 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>960</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>890</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>2015</v>
       </c>
       <c r="I6" t="s">
@@ -1576,13 +1582,13 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>920</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>910</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>2015</v>
       </c>
       <c r="I7" t="s">
@@ -1605,13 +1611,13 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>749</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>1650</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>2015</v>
       </c>
       <c r="I8" t="s">
@@ -1634,13 +1640,13 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>610</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>1520</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>2013</v>
       </c>
       <c r="I9" t="s">
@@ -1663,13 +1669,13 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1150</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>750</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>2015</v>
       </c>
       <c r="I10" t="s">
@@ -1692,13 +1698,13 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>530</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>722</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2022</v>
       </c>
       <c r="I11" t="s">
@@ -1721,13 +1727,13 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>530</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>722</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>2022</v>
       </c>
       <c r="I12" t="s">
@@ -1750,13 +1756,13 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>530</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>722</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>2022</v>
       </c>
       <c r="I13" t="s">
@@ -1779,13 +1785,13 @@
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>530</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>722</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>2022</v>
       </c>
       <c r="I14" t="s">
@@ -1808,13 +1814,13 @@
       <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>530</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>722</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>2022</v>
       </c>
       <c r="I15" t="s">
@@ -1837,13 +1843,13 @@
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>530</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>722</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>2022</v>
       </c>
       <c r="I16" t="s">
@@ -1866,13 +1872,13 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>530</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>722</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>2022</v>
       </c>
       <c r="I17" t="s">
@@ -1895,13 +1901,13 @@
       <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>530</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>722</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>2022</v>
       </c>
       <c r="I18" t="s">
@@ -1924,13 +1930,13 @@
       <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>1500</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>947</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>2015</v>
       </c>
       <c r="I19" t="s">
@@ -1953,13 +1959,13 @@
       <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>590</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>590</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>2022</v>
       </c>
       <c r="I20" t="s">
@@ -1982,13 +1988,13 @@
       <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>590</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>590</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>2022</v>
       </c>
       <c r="I21" t="s">
@@ -2011,13 +2017,13 @@
       <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>590</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>590</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>2022</v>
       </c>
       <c r="I22" t="s">
@@ -2040,13 +2046,13 @@
       <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>590</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>590</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>2022</v>
       </c>
       <c r="I23" t="s">
@@ -2069,13 +2075,13 @@
       <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>590</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>590</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>2022</v>
       </c>
       <c r="I24" t="s">
@@ -2098,13 +2104,13 @@
       <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>590</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>590</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>2022</v>
       </c>
       <c r="I25" t="s">
@@ -2127,13 +2133,13 @@
       <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>810</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>1160</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>2012</v>
       </c>
       <c r="I26" t="s">
@@ -2156,13 +2162,13 @@
       <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>810</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>1160</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>2012</v>
       </c>
       <c r="I27" t="s">
@@ -2185,13 +2191,13 @@
       <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>727</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>909</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>2022</v>
       </c>
       <c r="I28" t="s">
@@ -2214,13 +2220,13 @@
       <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>530</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>727</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>2018</v>
       </c>
       <c r="I29" t="s">
@@ -2243,13 +2249,13 @@
       <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>1020</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>760</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>2012</v>
       </c>
       <c r="I30" t="s">
@@ -2272,13 +2278,13 @@
       <c r="E31" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>970</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>920</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>2009</v>
       </c>
       <c r="I31" t="s">
@@ -2301,13 +2307,13 @@
       <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>304</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>304</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>2022</v>
       </c>
       <c r="I32" t="s">
@@ -2330,13 +2336,13 @@
       <c r="E33" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>304</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>304</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>2022</v>
       </c>
       <c r="I33" t="s">
@@ -2359,13 +2365,13 @@
       <c r="E34" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>560</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>713</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <v>2022</v>
       </c>
       <c r="I34" t="s">
@@ -2388,13 +2394,13 @@
       <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>300</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>300</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>2022</v>
       </c>
       <c r="I35" t="s">
@@ -2417,13 +2423,13 @@
       <c r="E36" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>456</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>610</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <v>2018</v>
       </c>
       <c r="I36" t="s">
@@ -2446,13 +2452,13 @@
       <c r="E37" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>300</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>300</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>2022</v>
       </c>
       <c r="I37" t="s">
@@ -2475,13 +2481,13 @@
       <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>456</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>610</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <v>2021</v>
       </c>
       <c r="I38" t="s">
@@ -2504,13 +2510,13 @@
       <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>460</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>607</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>2021</v>
       </c>
       <c r="I39" t="s">
@@ -2533,13 +2539,13 @@
       <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>300</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>300</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <v>2022</v>
       </c>
       <c r="I40" t="s">
@@ -2562,13 +2568,13 @@
       <c r="E41" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>455</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>530</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <v>2022</v>
       </c>
       <c r="I41" t="s">
@@ -2591,13 +2597,13 @@
       <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>500</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>552</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <v>2022</v>
       </c>
       <c r="I42" t="s">
@@ -2620,13 +2626,13 @@
       <c r="E43" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>560</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>713</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="5">
         <v>2022</v>
       </c>
       <c r="I43" t="s">
@@ -2649,13 +2655,13 @@
       <c r="E44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>530</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>727</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <v>2019</v>
       </c>
       <c r="I44" t="s">
@@ -2678,13 +2684,13 @@
       <c r="E45" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>530</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>727</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="5">
         <v>2019</v>
       </c>
       <c r="I45" t="s">
@@ -2707,13 +2713,13 @@
       <c r="E46" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>1020</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>760</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="5">
         <v>2012</v>
       </c>
       <c r="I46" t="s">
@@ -2736,13 +2742,13 @@
       <c r="E47" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>910</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>1168</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>2022</v>
       </c>
       <c r="I47" t="s">
@@ -2765,13 +2771,13 @@
       <c r="E48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>1015</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>1010</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="5">
         <v>2022</v>
       </c>
       <c r="I48" t="s">
@@ -2794,13 +2800,13 @@
       <c r="E49" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>455</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>53</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>2022</v>
       </c>
       <c r="I49" t="s">
@@ -2823,13 +2829,13 @@
       <c r="E50" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>530</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>727</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="5">
         <v>2022</v>
       </c>
       <c r="I50" t="s">
@@ -2852,13 +2858,13 @@
       <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>606</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>727</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="5">
         <v>2022</v>
       </c>
       <c r="I51" t="s">
@@ -2881,13 +2887,13 @@
       <c r="E52" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>970</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>920</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="5">
         <v>2012</v>
       </c>
       <c r="I52" t="s">
@@ -2910,13 +2916,13 @@
       <c r="E53" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>810</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>1160</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>2012</v>
       </c>
       <c r="I53" t="s">
@@ -2939,13 +2945,13 @@
       <c r="E54" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
         <v>2018</v>
       </c>
       <c r="I54" t="s">
@@ -2968,13 +2974,13 @@
       <c r="E55" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
         <v>2018</v>
       </c>
       <c r="I55" t="s">
@@ -2997,13 +3003,13 @@
       <c r="E56" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
         <v>2018</v>
       </c>
       <c r="I56" t="s">
@@ -3026,13 +3032,13 @@
       <c r="E57" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
         <v>2018</v>
       </c>
       <c r="I57" t="s">
@@ -3055,13 +3061,13 @@
       <c r="E58" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
         <v>2018</v>
       </c>
       <c r="I58" t="s">
@@ -3084,13 +3090,13 @@
       <c r="E59" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
         <v>2018</v>
       </c>
       <c r="I59" t="s">
@@ -3113,13 +3119,13 @@
       <c r="E60" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
         <v>2018</v>
       </c>
       <c r="I60" t="s">
@@ -3142,13 +3148,13 @@
       <c r="E61" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
         <v>2018</v>
       </c>
       <c r="I61" t="s">
@@ -3171,13 +3177,13 @@
       <c r="E62" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
         <v>2018</v>
       </c>
       <c r="I62" t="s">
@@ -3200,13 +3206,13 @@
       <c r="E63" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
         <v>2018</v>
       </c>
       <c r="I63" t="s">
@@ -3229,13 +3235,13 @@
       <c r="E64" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
         <v>2018</v>
       </c>
       <c r="I64" t="s">
@@ -3258,13 +3264,13 @@
       <c r="E65" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
         <v>2018</v>
       </c>
       <c r="I65" t="s">
@@ -3287,13 +3293,13 @@
       <c r="E66" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
         <v>2018</v>
       </c>
       <c r="I66" t="s">
@@ -3316,13 +3322,13 @@
       <c r="E67" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
         <v>2018</v>
       </c>
       <c r="I67" t="s">
@@ -3345,13 +3351,13 @@
       <c r="E68" t="s">
         <v>150</v>
       </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
         <v>2018</v>
       </c>
       <c r="I68" t="s">
@@ -3374,13 +3380,13 @@
       <c r="E69" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
         <v>2018</v>
       </c>
       <c r="I69" t="s">
@@ -3403,13 +3409,13 @@
       <c r="E70" t="s">
         <v>154</v>
       </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
         <v>2018</v>
       </c>
       <c r="I70" t="s">
@@ -3432,13 +3438,13 @@
       <c r="E71" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
@@ -3461,13 +3467,13 @@
       <c r="E72" t="s">
         <v>159</v>
       </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
         <v>2018</v>
       </c>
       <c r="I72" t="s">
@@ -3490,13 +3496,13 @@
       <c r="E73" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
         <v>2018</v>
       </c>
       <c r="I73" t="s">
@@ -3519,13 +3525,13 @@
       <c r="E74" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-      <c r="H74" s="4">
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
         <v>2018</v>
       </c>
       <c r="I74" t="s">
@@ -3548,13 +3554,13 @@
       <c r="E75" t="s">
         <v>165</v>
       </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4">
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
         <v>2018</v>
       </c>
       <c r="I75" t="s">
@@ -3577,13 +3583,13 @@
       <c r="E76" t="s">
         <v>167</v>
       </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
         <v>2018</v>
       </c>
       <c r="I76" t="s">
@@ -3606,13 +3612,13 @@
       <c r="E77" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
         <v>2018</v>
       </c>
       <c r="I77" t="s">
@@ -3635,13 +3641,13 @@
       <c r="E78" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0</v>
-      </c>
-      <c r="H78" s="4">
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
         <v>2018</v>
       </c>
       <c r="I78" t="s">
@@ -3664,13 +3670,13 @@
       <c r="E79" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
         <v>2018</v>
       </c>
       <c r="I79" t="s">
@@ -3693,13 +3699,13 @@
       <c r="E80" t="s">
         <v>175</v>
       </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
         <v>2018</v>
       </c>
       <c r="I80" t="s">
@@ -3722,13 +3728,13 @@
       <c r="E81" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
         <v>2018</v>
       </c>
       <c r="I81" t="s">
@@ -3751,13 +3757,13 @@
       <c r="E82" t="s">
         <v>179</v>
       </c>
-      <c r="F82" s="4">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
         <v>2018</v>
       </c>
       <c r="I82" t="s">
@@ -3780,13 +3786,13 @@
       <c r="E83" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
         <v>2018</v>
       </c>
       <c r="I83" t="s">
@@ -3809,13 +3815,13 @@
       <c r="E84" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
         <v>2018</v>
       </c>
       <c r="I84" t="s">
@@ -3838,13 +3844,13 @@
       <c r="E85" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
         <v>2018</v>
       </c>
       <c r="I85" t="s">
@@ -3867,13 +3873,13 @@
       <c r="E86" t="s">
         <v>187</v>
       </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0</v>
-      </c>
-      <c r="H86" s="4">
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
         <v>2018</v>
       </c>
       <c r="I86" t="s">
@@ -3896,13 +3902,13 @@
       <c r="E87" t="s">
         <v>189</v>
       </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
         <v>2018</v>
       </c>
       <c r="I87" t="s">
@@ -3925,13 +3931,13 @@
       <c r="E88" t="s">
         <v>191</v>
       </c>
-      <c r="F88" s="4">
-        <v>0</v>
-      </c>
-      <c r="G88" s="4">
-        <v>0</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
         <v>2018</v>
       </c>
       <c r="I88" t="s">
@@ -3954,13 +3960,13 @@
       <c r="E89" t="s">
         <v>193</v>
       </c>
-      <c r="F89" s="4">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0</v>
-      </c>
-      <c r="H89" s="4">
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
         <v>2018</v>
       </c>
       <c r="I89" t="s">
@@ -3983,13 +3989,13 @@
       <c r="E90" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="4">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
         <v>2018</v>
       </c>
       <c r="I90" t="s">
@@ -4012,13 +4018,13 @@
       <c r="E91" t="s">
         <v>197</v>
       </c>
-      <c r="F91" s="4">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
         <v>2018</v>
       </c>
       <c r="I91" t="s">
@@ -4041,13 +4047,13 @@
       <c r="E92" t="s">
         <v>199</v>
       </c>
-      <c r="F92" s="4">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
         <v>2018</v>
       </c>
       <c r="I92" t="s">
@@ -4070,13 +4076,13 @@
       <c r="E93" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="4">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0</v>
-      </c>
-      <c r="H93" s="4">
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
         <v>2018</v>
       </c>
       <c r="I93" t="s">
@@ -4099,13 +4105,13 @@
       <c r="E94" t="s">
         <v>203</v>
       </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0</v>
-      </c>
-      <c r="H94" s="4">
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5">
         <v>2018</v>
       </c>
       <c r="I94" t="s">
@@ -4128,13 +4134,13 @@
       <c r="E95" t="s">
         <v>205</v>
       </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
+      <c r="H95" s="5">
         <v>2018</v>
       </c>
       <c r="I95" t="s">
@@ -4157,13 +4163,13 @@
       <c r="E96" t="s">
         <v>207</v>
       </c>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+      <c r="H96" s="5">
         <v>2018</v>
       </c>
       <c r="I96" t="s">
@@ -4186,13 +4192,13 @@
       <c r="E97" t="s">
         <v>209</v>
       </c>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0</v>
-      </c>
-      <c r="H97" s="4">
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5">
         <v>2018</v>
       </c>
       <c r="I97" t="s">
@@ -4215,13 +4221,13 @@
       <c r="E98" t="s">
         <v>213</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <v>995</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>995</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="5">
         <v>2012</v>
       </c>
       <c r="I98" t="s">
@@ -4244,13 +4250,13 @@
       <c r="E99" t="s">
         <v>215</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <v>995</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>995</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <v>2012</v>
       </c>
       <c r="I99" t="s">
@@ -4273,13 +4279,13 @@
       <c r="E100" t="s">
         <v>218</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <v>890</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>890</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="5">
         <v>2014</v>
       </c>
       <c r="I100" t="s">
@@ -4302,13 +4308,13 @@
       <c r="E101" t="s">
         <v>221</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <v>2000</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>1450</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="5">
         <v>2017</v>
       </c>
       <c r="I101" t="s">
@@ -4331,13 +4337,13 @@
       <c r="E102" t="s">
         <v>223</v>
       </c>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4">
-        <v>0</v>
-      </c>
-      <c r="H102" s="4">
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0</v>
+      </c>
+      <c r="H102" s="5">
         <v>2017</v>
       </c>
       <c r="I102" t="s">
@@ -4360,13 +4366,13 @@
       <c r="E103" t="s">
         <v>225</v>
       </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0</v>
-      </c>
-      <c r="H103" s="4">
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5">
         <v>2017</v>
       </c>
       <c r="I103" t="s">
@@ -4389,13 +4395,13 @@
       <c r="E104" t="s">
         <v>227</v>
       </c>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0</v>
-      </c>
-      <c r="H104" s="4">
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5">
         <v>2017</v>
       </c>
       <c r="I104" t="s">
@@ -4418,13 +4424,13 @@
       <c r="E105" t="s">
         <v>229</v>
       </c>
-      <c r="F105" s="4">
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0</v>
-      </c>
-      <c r="H105" s="4">
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
+      <c r="H105" s="5">
         <v>2017</v>
       </c>
       <c r="I105" t="s">
@@ -4447,13 +4453,13 @@
       <c r="E106" t="s">
         <v>231</v>
       </c>
-      <c r="F106" s="4">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0</v>
-      </c>
-      <c r="H106" s="4">
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5">
         <v>2017</v>
       </c>
       <c r="I106" t="s">
@@ -4476,13 +4482,13 @@
       <c r="E107" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
         <v>2017</v>
       </c>
       <c r="I107" t="s">
@@ -4505,13 +4511,13 @@
       <c r="E108" t="s">
         <v>235</v>
       </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
         <v>2017</v>
       </c>
       <c r="I108" t="s">
@@ -4534,13 +4540,13 @@
       <c r="E109" t="s">
         <v>237</v>
       </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="5">
         <v>2017</v>
       </c>
       <c r="I109" t="s">
@@ -4563,13 +4569,13 @@
       <c r="E110" t="s">
         <v>239</v>
       </c>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0</v>
-      </c>
-      <c r="H110" s="4">
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0</v>
+      </c>
+      <c r="H110" s="5">
         <v>2017</v>
       </c>
       <c r="I110" t="s">
@@ -4592,13 +4598,13 @@
       <c r="E111" t="s">
         <v>241</v>
       </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5">
         <v>2017</v>
       </c>
       <c r="I111" t="s">
@@ -4621,13 +4627,13 @@
       <c r="E112" t="s">
         <v>243</v>
       </c>
-      <c r="F112" s="4">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
+      <c r="H112" s="5">
         <v>2017</v>
       </c>
       <c r="I112" t="s">
@@ -4650,13 +4656,13 @@
       <c r="E113" t="s">
         <v>245</v>
       </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
-      </c>
-      <c r="H113" s="4">
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+      <c r="H113" s="5">
         <v>2017</v>
       </c>
       <c r="I113" t="s">
@@ -4679,13 +4685,13 @@
       <c r="E114" t="s">
         <v>247</v>
       </c>
-      <c r="F114" s="4">
-        <v>0</v>
-      </c>
-      <c r="G114" s="4">
-        <v>0</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0</v>
+      </c>
+      <c r="H114" s="5">
         <v>2017</v>
       </c>
       <c r="I114" t="s">
@@ -4708,13 +4714,13 @@
       <c r="E115" t="s">
         <v>249</v>
       </c>
-      <c r="F115" s="4">
-        <v>0</v>
-      </c>
-      <c r="G115" s="4">
-        <v>0</v>
-      </c>
-      <c r="H115" s="4">
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0</v>
+      </c>
+      <c r="H115" s="5">
         <v>2017</v>
       </c>
       <c r="I115" t="s">
@@ -4737,13 +4743,13 @@
       <c r="E116" t="s">
         <v>251</v>
       </c>
-      <c r="F116" s="4">
-        <v>0</v>
-      </c>
-      <c r="G116" s="4">
-        <v>0</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0</v>
+      </c>
+      <c r="H116" s="5">
         <v>2017</v>
       </c>
       <c r="I116" t="s">
@@ -4766,13 +4772,13 @@
       <c r="E117" t="s">
         <v>253</v>
       </c>
-      <c r="F117" s="4">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0</v>
-      </c>
-      <c r="H117" s="4">
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+      <c r="H117" s="5">
         <v>2016</v>
       </c>
       <c r="I117" t="s">
@@ -4795,13 +4801,13 @@
       <c r="E118" t="s">
         <v>255</v>
       </c>
-      <c r="F118" s="4">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4">
-        <v>0</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0</v>
+      </c>
+      <c r="H118" s="5">
         <v>2017</v>
       </c>
       <c r="I118" t="s">
@@ -4824,13 +4830,13 @@
       <c r="E119" t="s">
         <v>257</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="5">
         <v>400</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>130</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="5">
         <v>2016</v>
       </c>
       <c r="I119" t="s">
@@ -4853,13 +4859,13 @@
       <c r="E120" t="s">
         <v>259</v>
       </c>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0</v>
-      </c>
-      <c r="H120" s="4">
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+      <c r="H120" s="5">
         <v>2016</v>
       </c>
       <c r="I120" t="s">
@@ -4882,13 +4888,13 @@
       <c r="E121" t="s">
         <v>261</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="5">
         <v>750</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>160</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="5">
         <v>2016</v>
       </c>
       <c r="I121" t="s">
@@ -4911,13 +4917,13 @@
       <c r="E122" t="s">
         <v>263</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="5">
         <v>750</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <v>160</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="5">
         <v>2016</v>
       </c>
       <c r="I122" t="s">
@@ -4940,13 +4946,13 @@
       <c r="E123" t="s">
         <v>265</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="5">
         <v>750</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <v>160</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="5">
         <v>2016</v>
       </c>
       <c r="I123" t="s">
@@ -4969,13 +4975,13 @@
       <c r="E124" t="s">
         <v>269</v>
       </c>
-      <c r="F124" s="4">
-        <v>0</v>
-      </c>
-      <c r="G124" s="4">
-        <v>0</v>
-      </c>
-      <c r="H124" s="4">
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5">
         <v>2015</v>
       </c>
       <c r="I124" t="s">
@@ -4998,13 +5004,13 @@
       <c r="E125" t="s">
         <v>271</v>
       </c>
-      <c r="F125" s="4">
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
-      </c>
-      <c r="H125" s="4">
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0</v>
+      </c>
+      <c r="H125" s="5">
         <v>2015</v>
       </c>
       <c r="I125" t="s">
@@ -5027,13 +5033,13 @@
       <c r="E126" t="s">
         <v>273</v>
       </c>
-      <c r="F126" s="4">
-        <v>0</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0</v>
-      </c>
-      <c r="H126" s="4">
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
         <v>2015</v>
       </c>
       <c r="I126" t="s">
@@ -5056,13 +5062,13 @@
       <c r="E127" t="s">
         <v>275</v>
       </c>
-      <c r="F127" s="4">
-        <v>0</v>
-      </c>
-      <c r="G127" s="4">
-        <v>0</v>
-      </c>
-      <c r="H127" s="4">
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="5">
         <v>2015</v>
       </c>
       <c r="I127" t="s">
@@ -5085,13 +5091,13 @@
       <c r="E128" t="s">
         <v>277</v>
       </c>
-      <c r="F128" s="4">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
-        <v>0</v>
-      </c>
-      <c r="H128" s="4">
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
+      </c>
+      <c r="H128" s="5">
         <v>2015</v>
       </c>
       <c r="I128" t="s">
@@ -5114,13 +5120,13 @@
       <c r="E129" t="s">
         <v>280</v>
       </c>
-      <c r="F129" s="4">
-        <v>0</v>
-      </c>
-      <c r="G129" s="4">
-        <v>0</v>
-      </c>
-      <c r="H129" s="4">
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5">
         <v>2017</v>
       </c>
       <c r="I129" t="s">
@@ -5143,13 +5149,13 @@
       <c r="E130" t="s">
         <v>282</v>
       </c>
-      <c r="F130" s="4">
-        <v>0</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0</v>
-      </c>
-      <c r="H130" s="4">
+      <c r="F130" s="5">
+        <v>0</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0</v>
+      </c>
+      <c r="H130" s="5">
         <v>2017</v>
       </c>
       <c r="I130" t="s">
@@ -5172,13 +5178,13 @@
       <c r="E131" t="s">
         <v>285</v>
       </c>
-      <c r="F131" s="4">
-        <v>0</v>
-      </c>
-      <c r="G131" s="4">
-        <v>0</v>
-      </c>
-      <c r="H131" s="4">
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5">
         <v>2022</v>
       </c>
       <c r="I131" t="s">
@@ -5201,13 +5207,13 @@
       <c r="E132" t="s">
         <v>287</v>
       </c>
-      <c r="F132" s="4">
-        <v>0</v>
-      </c>
-      <c r="G132" s="4">
-        <v>0</v>
-      </c>
-      <c r="H132" s="4">
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5">
         <v>2022</v>
       </c>
       <c r="I132" t="s">
@@ -5230,13 +5236,13 @@
       <c r="E133" t="s">
         <v>289</v>
       </c>
-      <c r="F133" s="4">
-        <v>0</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0</v>
-      </c>
-      <c r="H133" s="4">
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0</v>
+      </c>
+      <c r="H133" s="5">
         <v>2022</v>
       </c>
       <c r="I133" t="s">
@@ -5259,13 +5265,13 @@
       <c r="E134" t="s">
         <v>291</v>
       </c>
-      <c r="F134" s="4">
-        <v>0</v>
-      </c>
-      <c r="G134" s="4">
-        <v>0</v>
-      </c>
-      <c r="H134" s="4">
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0</v>
+      </c>
+      <c r="H134" s="5">
         <v>2022</v>
       </c>
       <c r="I134" t="s">
@@ -5288,13 +5294,13 @@
       <c r="E135" t="s">
         <v>293</v>
       </c>
-      <c r="F135" s="4">
-        <v>0</v>
-      </c>
-      <c r="G135" s="4">
-        <v>0</v>
-      </c>
-      <c r="H135" s="4">
+      <c r="F135" s="5">
+        <v>0</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0</v>
+      </c>
+      <c r="H135" s="5">
         <v>2022</v>
       </c>
       <c r="I135" t="s">
@@ -5317,13 +5323,13 @@
       <c r="E136" t="s">
         <v>295</v>
       </c>
-      <c r="F136" s="4">
-        <v>0</v>
-      </c>
-      <c r="G136" s="4">
-        <v>0</v>
-      </c>
-      <c r="H136" s="4">
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0</v>
+      </c>
+      <c r="H136" s="5">
         <v>2022</v>
       </c>
       <c r="I136" t="s">
@@ -5346,13 +5352,13 @@
       <c r="E137" t="s">
         <v>297</v>
       </c>
-      <c r="F137" s="4">
-        <v>0</v>
-      </c>
-      <c r="G137" s="4">
-        <v>0</v>
-      </c>
-      <c r="H137" s="4">
+      <c r="F137" s="5">
+        <v>0</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0</v>
+      </c>
+      <c r="H137" s="5">
         <v>2022</v>
       </c>
       <c r="I137" t="s">
@@ -5375,13 +5381,13 @@
       <c r="E138" t="s">
         <v>299</v>
       </c>
-      <c r="F138" s="4">
-        <v>0</v>
-      </c>
-      <c r="G138" s="4">
-        <v>0</v>
-      </c>
-      <c r="H138" s="4">
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0</v>
+      </c>
+      <c r="H138" s="5">
         <v>2022</v>
       </c>
       <c r="I138" t="s">
@@ -5404,13 +5410,13 @@
       <c r="E139" t="s">
         <v>302</v>
       </c>
-      <c r="F139" s="4">
-        <v>0</v>
-      </c>
-      <c r="G139" s="4">
-        <v>0</v>
-      </c>
-      <c r="H139" s="4">
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0</v>
+      </c>
+      <c r="H139" s="5">
         <v>2022</v>
       </c>
       <c r="I139" t="s">
@@ -5433,13 +5439,13 @@
       <c r="E140" t="s">
         <v>304</v>
       </c>
-      <c r="F140" s="4">
-        <v>0</v>
-      </c>
-      <c r="G140" s="4">
-        <v>0</v>
-      </c>
-      <c r="H140" s="4">
+      <c r="F140" s="5">
+        <v>0</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0</v>
+      </c>
+      <c r="H140" s="5">
         <v>2022</v>
       </c>
       <c r="I140" t="s">
@@ -5462,13 +5468,13 @@
       <c r="E141" t="s">
         <v>306</v>
       </c>
-      <c r="F141" s="4">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4">
-        <v>0</v>
-      </c>
-      <c r="H141" s="4">
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5">
+        <v>0</v>
+      </c>
+      <c r="H141" s="5">
         <v>2022</v>
       </c>
       <c r="I141" t="s">
@@ -5491,13 +5497,13 @@
       <c r="E142" t="s">
         <v>308</v>
       </c>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4">
-        <v>0</v>
-      </c>
-      <c r="H142" s="4">
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0</v>
+      </c>
+      <c r="H142" s="5">
         <v>2022</v>
       </c>
       <c r="I142" t="s">
@@ -5520,13 +5526,13 @@
       <c r="E143" t="s">
         <v>310</v>
       </c>
-      <c r="F143" s="4">
-        <v>0</v>
-      </c>
-      <c r="G143" s="4">
-        <v>0</v>
-      </c>
-      <c r="H143" s="4">
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0</v>
+      </c>
+      <c r="H143" s="5">
         <v>2022</v>
       </c>
       <c r="I143" t="s">
@@ -5549,13 +5555,13 @@
       <c r="E144" t="s">
         <v>312</v>
       </c>
-      <c r="F144" s="4">
-        <v>0</v>
-      </c>
-      <c r="G144" s="4">
-        <v>0</v>
-      </c>
-      <c r="H144" s="4">
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0</v>
+      </c>
+      <c r="H144" s="5">
         <v>2022</v>
       </c>
       <c r="I144" t="s">
@@ -5578,13 +5584,13 @@
       <c r="E145" t="s">
         <v>314</v>
       </c>
-      <c r="F145" s="4">
-        <v>0</v>
-      </c>
-      <c r="G145" s="4">
-        <v>0</v>
-      </c>
-      <c r="H145" s="4">
+      <c r="F145" s="5">
+        <v>0</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0</v>
+      </c>
+      <c r="H145" s="5">
         <v>2022</v>
       </c>
       <c r="I145" t="s">
@@ -5607,13 +5613,13 @@
       <c r="E146" t="s">
         <v>316</v>
       </c>
-      <c r="F146" s="4">
-        <v>0</v>
-      </c>
-      <c r="G146" s="4">
-        <v>0</v>
-      </c>
-      <c r="H146" s="4">
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0</v>
+      </c>
+      <c r="H146" s="5">
         <v>2022</v>
       </c>
       <c r="I146" t="s">
@@ -5636,13 +5642,13 @@
       <c r="E147" t="s">
         <v>318</v>
       </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4">
-        <v>0</v>
-      </c>
-      <c r="H147" s="4">
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5">
         <v>2022</v>
       </c>
       <c r="I147" t="s">
@@ -5665,13 +5671,13 @@
       <c r="E148" t="s">
         <v>320</v>
       </c>
-      <c r="F148" s="4">
-        <v>0</v>
-      </c>
-      <c r="G148" s="4">
-        <v>0</v>
-      </c>
-      <c r="H148" s="4">
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0</v>
+      </c>
+      <c r="H148" s="5">
         <v>2022</v>
       </c>
       <c r="I148" t="s">
